--- a/nlp/data/VCHAINS/5037958512_VCHAINS.xlsx
+++ b/nlp/data/VCHAINS/5037958512_VCHAINS.xlsx
@@ -14,16 +14,16 @@
     <x:definedName name="CriteriaLabels">'Value Chains'!$A$3:$A$4</x:definedName>
     <x:definedName name="CriteriaValues">'Value Chains'!$B$3:$B$4</x:definedName>
     <x:definedName name="ColumnHeader">'Value Chains'!$A$6:$N$6</x:definedName>
-    <x:definedName name="Data">'Value Chains'!$A$7:$N$11</x:definedName>
-    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$11</x:definedName>
-    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$11</x:definedName>
+    <x:definedName name="Data">'Value Chains'!$A$7:$N$33</x:definedName>
+    <x:definedName name="DataConfidenceScore">'Value Chains'!$G$7:$G$33</x:definedName>
+    <x:definedName name="DataRevenue">'Value Chains'!$I$7:$I$33</x:definedName>
   </x:definedNames>
   <x:calcPr calcId="125725"/>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="83">
   <x:si>
     <x:t>Value Chains</x:t>
   </x:si>
@@ -31,7 +31,7 @@
     <x:t>Company Name</x:t>
   </x:si>
   <x:si>
-    <x:t>Lite-On Technology Corp</x:t>
+    <x:t>WPP PLC</x:t>
   </x:si>
   <x:si>
     <x:t>Company Id</x:t>
@@ -76,7 +76,7 @@
     <x:t>Implied Rating</x:t>
   </x:si>
   <x:si>
-    <x:t>Apple Inc</x:t>
+    <x:t>Ford Motor Co</x:t>
   </x:si>
   <x:si>
     <x:t>Public</x:t>
@@ -88,43 +88,190 @@
     <x:t>United States of America</x:t>
   </x:si>
   <x:si>
-    <x:t>Phones &amp; Handheld Devices</x:t>
+    <x:t>Auto &amp; Truck Manufacturers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Procter &amp; Gamble Co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Personal Products</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBB+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unilever NV</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Private</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Netherlands</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Unilever PLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>United Kingdom</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coca-Cola Co</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Non-Alcoholic Beverages</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vodafone Group PLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wireless Telecommunications Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BBB-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Newell Brands Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Appliances, Tools &amp; Housewares</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BB-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Walgreens Boots Alliance Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Drug Retailers</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wunderman Worldwide LLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Advertising &amp; Marketing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Comscore Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Supplier</x:t>
+  </x:si>
+  <x:si>
+    <x:t>B-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Globant SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Luxembourg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IT Services &amp; Consulting</x:t>
   </x:si>
   <x:si>
     <x:t>A</x:t>
   </x:si>
   <x:si>
-    <x:t>Roku Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Supplier</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Entertainment Production</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Cypress Semiconductor Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Private</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Semiconductors</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BBB-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Optomec Inc</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Electronic Equipment &amp; Parts</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Kioxia Holdings Corp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Japan</x:t>
+    <x:t>Whirlpool Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BP PLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Oil &amp; Gas Refining and Marketing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CCC+</x:t>
+  </x:si>
+  <x:si>
+    <x:t>British American Tobacco PLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Tobacco</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eBay Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Online Services</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HSBC Holdings PLC</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Banks</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Nestle SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Switzerland</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Food Processing</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Distell Group Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>South Africa</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Distillers &amp; Wineries</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Microsoft Corp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Software</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mondelez International Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Adidas AG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Germany</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footwear</x:t>
+  </x:si>
+  <x:si>
+    <x:t>A-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Groupm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GroupM Publicidad Worldwide SA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spain</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kantar SASU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>France</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Twitter Inc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Indusind Bank Ltd</x:t>
+  </x:si>
+  <x:si>
+    <x:t>India</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OPTIMIZERx Corp</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -578,24 +725,24 @@
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
     <x:pageSetUpPr fitToPage="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:N11"/>
+  <x:dimension ref="A1:N33"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="15.700625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="26.300625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="30.810625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="7.830625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="12.710625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="23.040625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="26.790625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="34.680625" style="0" customWidth="1"/>
     <x:col min="7" max="7" width="20.190625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="16.840625000000003" style="0" customWidth="1"/>
     <x:col min="9" max="9" width="21.920625" style="0" customWidth="1"/>
     <x:col min="10" max="10" width="10.410625" style="0" customWidth="1"/>
     <x:col min="11" max="11" width="14.180625000000001" style="0" customWidth="1"/>
-    <x:col min="12" max="12" width="14.880625" style="0" customWidth="1"/>
+    <x:col min="12" max="12" width="18.300625" style="0" customWidth="1"/>
     <x:col min="13" max="13" width="9.570625" style="0" customWidth="1"/>
     <x:col min="14" max="14" width="14.480625" style="0" customWidth="1"/>
   </x:cols>
@@ -605,7 +752,7 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="2">
-        <x:v>44595.9333333333</x:v>
+        <x:v>44596.4965277778</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:14" customFormat="1" ht="32.26" customHeight="1">
@@ -639,7 +786,7 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B4" s="5" t="n">
-        <x:v>4295891508</x:v>
+        <x:v>5037958512</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:14">
@@ -688,7 +835,7 @@
     </x:row>
     <x:row r="7" spans="1:14">
       <x:c r="A7" s="5" t="n">
-        <x:v>4295905573</x:v>
+        <x:v>4295903068</x:v>
       </x:c>
       <x:c r="B7" s="5" t="s">
         <x:v>17</x:v>
@@ -706,25 +853,25 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="G7" s="7" t="n">
-        <x:v>1</x:v>
+        <x:v>0.998414473928958</x:v>
       </x:c>
       <x:c r="H7" s="8">
-        <x:v>43132</x:v>
+        <x:v>44266</x:v>
       </x:c>
       <x:c r="I7" s="9" t="n">
-        <x:v>1463</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="J7" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K7" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="L7" s="5" t="n">
-        <x:v>365817000000</x:v>
+        <x:v>127144000000</x:v>
       </x:c>
       <x:c r="M7" s="5" t="n">
-        <x:v>80</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="N7" s="5" t="s">
         <x:v>22</x:v>
@@ -732,7 +879,7 @@
     </x:row>
     <x:row r="8" spans="1:14">
       <x:c r="A8" s="5" t="n">
-        <x:v>4297900917</x:v>
+        <x:v>4295903247</x:v>
       </x:c>
       <x:c r="B8" s="5" t="s">
         <x:v>23</x:v>
@@ -741,42 +888,42 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="D8" s="5" t="s">
-        <x:v>24</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="E8" s="5" t="s">
         <x:v>20</x:v>
       </x:c>
       <x:c r="F8" s="5" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="G8" s="7" t="n">
+        <x:v>0.981478842165429</x:v>
+      </x:c>
+      <x:c r="H8" s="8">
+        <x:v>44319</x:v>
+      </x:c>
+      <x:c r="I8" s="9" t="n">
+        <x:v>277</x:v>
+      </x:c>
+      <x:c r="J8" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K8" s="5" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="L8" s="5" t="n">
+        <x:v>76118000000</x:v>
+      </x:c>
+      <x:c r="M8" s="5" t="n">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="N8" s="5" t="s">
         <x:v>25</x:v>
-      </x:c>
-      <x:c r="G8" s="7" t="n">
-        <x:v>0.55678434528</x:v>
-      </x:c>
-      <x:c r="H8" s="8">
-        <x:v>43062</x:v>
-      </x:c>
-      <x:c r="I8" s="9" t="n">
-        <x:v>1533</x:v>
-      </x:c>
-      <x:c r="J8" s="5" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="K8" s="5" t="n">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="L8" s="5" t="n">
-        <x:v>1778388000</x:v>
-      </x:c>
-      <x:c r="M8" s="5" t="n">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="N8" s="5" t="s">
-        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:14">
       <x:c r="A9" s="5" t="n">
-        <x:v>4295903116</x:v>
+        <x:v>4295884772</x:v>
       </x:c>
       <x:c r="B9" s="5" t="s">
         <x:v>26</x:v>
@@ -785,114 +932,1068 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="D9" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E9" s="5" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="F9" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E9" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F9" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
       <x:c r="G9" s="7" t="n">
-        <x:v>0.30366456</x:v>
+        <x:v>0.726706683447743</x:v>
       </x:c>
       <x:c r="H9" s="8">
-        <x:v>41156</x:v>
+        <x:v>43027</x:v>
       </x:c>
       <x:c r="I9" s="9" t="n">
-        <x:v>3439</x:v>
+        <x:v>1569</x:v>
       </x:c>
       <x:c r="J9" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="K9" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L9" s="5" t="n">
-        <x:v>2205314000</x:v>
+        <x:v>57899628673.0264</x:v>
       </x:c>
       <x:c r="M9" s="5" t="s"/>
-      <x:c r="N9" s="5" t="s">
-        <x:v>29</x:v>
-      </x:c>
+      <x:c r="N9" s="5" t="s"/>
     </x:row>
     <x:row r="10" spans="1:14">
       <x:c r="A10" s="5" t="n">
-        <x:v>4297422171</x:v>
+        <x:v>4295894770</x:v>
       </x:c>
       <x:c r="B10" s="5" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C10" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D10" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E10" s="5" t="s">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="C10" s="5" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="D10" s="5" t="s">
+      <x:c r="F10" s="5" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="E10" s="5" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="F10" s="5" t="s">
-        <x:v>31</x:v>
-      </x:c>
       <x:c r="G10" s="7" t="n">
-        <x:v>0.29733864</x:v>
+        <x:v>0.720784983652796</x:v>
       </x:c>
       <x:c r="H10" s="8">
-        <x:v>42452</x:v>
+        <x:v>44277</x:v>
       </x:c>
       <x:c r="I10" s="9" t="n">
-        <x:v>2143</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="J10" s="5" t="n">
-        <x:v>1</x:v>
+        <x:v>5</x:v>
       </x:c>
       <x:c r="K10" s="5" t="n">
-        <x:v>2</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="L10" s="5" t="n">
-        <x:v>8007154</x:v>
-      </x:c>
-      <x:c r="M10" s="5" t="s"/>
-      <x:c r="N10" s="5" t="s"/>
+        <x:v>57899628673.0264</x:v>
+      </x:c>
+      <x:c r="M10" s="5" t="n">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="N10" s="5" t="s">
+        <x:v>22</x:v>
+      </x:c>
     </x:row>
     <x:row r="11" spans="1:14">
       <x:c r="A11" s="5" t="n">
-        <x:v>5068663189</x:v>
+        <x:v>4295903091</x:v>
       </x:c>
       <x:c r="B11" s="5" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D11" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E11" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F11" s="5" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="C11" s="5" t="s">
+      <x:c r="G11" s="7" t="n">
+        <x:v>0.710283053909236</x:v>
+      </x:c>
+      <x:c r="H11" s="8">
+        <x:v>43584</x:v>
+      </x:c>
+      <x:c r="I11" s="9" t="n">
+        <x:v>1012</x:v>
+      </x:c>
+      <x:c r="J11" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K11" s="5" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="L11" s="5" t="n">
+        <x:v>33014000000</x:v>
+      </x:c>
+      <x:c r="M11" s="5" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="N11" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:14">
+      <x:c r="A12" s="5" t="n">
+        <x:v>4295896661</x:v>
+      </x:c>
+      <x:c r="B12" s="5" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C12" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D12" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E12" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F12" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="G12" s="7" t="n">
+        <x:v>0.678708747004737</x:v>
+      </x:c>
+      <x:c r="H12" s="8">
+        <x:v>43888</x:v>
+      </x:c>
+      <x:c r="I12" s="9" t="n">
+        <x:v>708</x:v>
+      </x:c>
+      <x:c r="J12" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K12" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="L12" s="5" t="n">
+        <x:v>51117120494.0511</x:v>
+      </x:c>
+      <x:c r="M12" s="5" t="n">
         <x:v>27</x:v>
       </x:c>
-      <x:c r="D11" s="5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="E11" s="5" t="s">
+      <x:c r="N12" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:14">
+      <x:c r="A13" s="5" t="n">
+        <x:v>4295912212</x:v>
+      </x:c>
+      <x:c r="B13" s="5" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C13" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D13" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E13" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F13" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G13" s="7" t="n">
+        <x:v>0.634547979264</x:v>
+      </x:c>
+      <x:c r="H13" s="8">
+        <x:v>43452</x:v>
+      </x:c>
+      <x:c r="I13" s="9" t="n">
+        <x:v>1144</x:v>
+      </x:c>
+      <x:c r="J13" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K13" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="L13" s="5" t="n">
+        <x:v>9385000000</x:v>
+      </x:c>
+      <x:c r="M13" s="5" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="N13" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:14">
+      <x:c r="A14" s="5" t="n">
+        <x:v>5043951500</x:v>
+      </x:c>
+      <x:c r="B14" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="C14" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D14" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E14" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F14" s="5" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="G14" s="7" t="n">
+        <x:v>0.57514814976</x:v>
+      </x:c>
+      <x:c r="H14" s="8">
+        <x:v>44313</x:v>
+      </x:c>
+      <x:c r="I14" s="9" t="n">
+        <x:v>283</x:v>
+      </x:c>
+      <x:c r="J14" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K14" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L14" s="5" t="n">
+        <x:v>132509000000</x:v>
+      </x:c>
+      <x:c r="M14" s="5" t="n">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="N14" s="5" t="s">
         <x:v>33</x:v>
       </x:c>
-      <x:c r="F11" s="5" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="G11" s="7" t="n">
-        <x:v>0.2897888</x:v>
-      </x:c>
-      <x:c r="H11" s="8">
-        <x:v>43710</x:v>
-      </x:c>
-      <x:c r="I11" s="9" t="n">
-        <x:v>885</x:v>
-      </x:c>
-      <x:c r="J11" s="5" t="n">
+    </x:row>
+    <x:row r="15" spans="1:14">
+      <x:c r="A15" s="5" t="n">
+        <x:v>5000217415</x:v>
+      </x:c>
+      <x:c r="B15" s="5" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C15" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D15" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E15" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F15" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G15" s="7" t="n">
+        <x:v>0.560443441152</x:v>
+      </x:c>
+      <x:c r="H15" s="8">
+        <x:v>44584</x:v>
+      </x:c>
+      <x:c r="I15" s="9" t="n">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="J15" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K15" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="L15" s="5" t="s"/>
+      <x:c r="M15" s="5" t="s"/>
+      <x:c r="N15" s="5" t="s"/>
+    </x:row>
+    <x:row r="16" spans="1:14">
+      <x:c r="A16" s="5" t="n">
+        <x:v>4295915628</x:v>
+      </x:c>
+      <x:c r="B16" s="5" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="C16" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D16" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E16" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F16" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G16" s="7" t="n">
+        <x:v>0.31963984</x:v>
+      </x:c>
+      <x:c r="H16" s="8">
+        <x:v>43525</x:v>
+      </x:c>
+      <x:c r="I16" s="9" t="n">
+        <x:v>1071</x:v>
+      </x:c>
+      <x:c r="J16" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K16" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L16" s="5" t="n">
+        <x:v>356036000</x:v>
+      </x:c>
+      <x:c r="M16" s="5" t="n">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="N16" s="5" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:14">
+      <x:c r="A17" s="5" t="n">
+        <x:v>5040244658</x:v>
+      </x:c>
+      <x:c r="B17" s="5" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C17" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D17" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E17" s="5" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="F17" s="5" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="G17" s="7" t="n">
+        <x:v>0.3167456</x:v>
+      </x:c>
+      <x:c r="H17" s="8">
+        <x:v>41277</x:v>
+      </x:c>
+      <x:c r="I17" s="9" t="n">
+        <x:v>3319</x:v>
+      </x:c>
+      <x:c r="J17" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K17" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L17" s="5" t="n">
+        <x:v>814139000</x:v>
+      </x:c>
+      <x:c r="M17" s="5" t="n">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="N17" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:14">
+      <x:c r="A18" s="5" t="n">
+        <x:v>4295905337</x:v>
+      </x:c>
+      <x:c r="B18" s="5" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C18" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D18" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E18" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F18" s="5" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="G18" s="7" t="n">
+        <x:v>0.3164</x:v>
+      </x:c>
+      <x:c r="H18" s="8">
+        <x:v>44075</x:v>
+      </x:c>
+      <x:c r="I18" s="9" t="n">
+        <x:v>521</x:v>
+      </x:c>
+      <x:c r="J18" s="5" t="n">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="K11" s="5" t="n">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="L11" s="5" t="s"/>
-      <x:c r="M11" s="5" t="s"/>
-      <x:c r="N11" s="5" t="s"/>
+      <x:c r="K18" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L18" s="5" t="n">
+        <x:v>21985000000</x:v>
+      </x:c>
+      <x:c r="M18" s="5" t="n">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="N18" s="5" t="s">
+        <x:v>33</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:14">
+      <x:c r="A19" s="5" t="n">
+        <x:v>4295894740</x:v>
+      </x:c>
+      <x:c r="B19" s="5" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C19" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D19" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E19" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F19" s="5" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="G19" s="7" t="n">
+        <x:v>0.30859248</x:v>
+      </x:c>
+      <x:c r="H19" s="8">
+        <x:v>43229</x:v>
+      </x:c>
+      <x:c r="I19" s="9" t="n">
+        <x:v>1367</x:v>
+      </x:c>
+      <x:c r="J19" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K19" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L19" s="5" t="n">
+        <x:v>161291000000</x:v>
+      </x:c>
+      <x:c r="M19" s="5" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N19" s="5" t="s">
+        <x:v>54</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="1:14">
+      <x:c r="A20" s="5" t="n">
+        <x:v>4295894777</x:v>
+      </x:c>
+      <x:c r="B20" s="5" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C20" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D20" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E20" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F20" s="5" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="G20" s="7" t="n">
+        <x:v>0.3076776</x:v>
+      </x:c>
+      <x:c r="H20" s="8">
+        <x:v>43558</x:v>
+      </x:c>
+      <x:c r="I20" s="9" t="n">
+        <x:v>1038</x:v>
+      </x:c>
+      <x:c r="J20" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K20" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L20" s="5" t="n">
+        <x:v>33082322700.765</x:v>
+      </x:c>
+      <x:c r="M20" s="5" t="n">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="N20" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="1:14">
+      <x:c r="A21" s="5" t="n">
+        <x:v>4295906238</x:v>
+      </x:c>
+      <x:c r="B21" s="5" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C21" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D21" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E21" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F21" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G21" s="7" t="n">
+        <x:v>0.30924608</x:v>
+      </x:c>
+      <x:c r="H21" s="8">
+        <x:v>43812</x:v>
+      </x:c>
+      <x:c r="I21" s="9" t="n">
+        <x:v>784</x:v>
+      </x:c>
+      <x:c r="J21" s="5" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="K21" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L21" s="5" t="n">
+        <x:v>10271000000</x:v>
+      </x:c>
+      <x:c r="M21" s="5" t="n">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="N21" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:14">
+      <x:c r="A22" s="5" t="n">
+        <x:v>8589934275</x:v>
+      </x:c>
+      <x:c r="B22" s="5" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C22" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D22" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E22" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F22" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G22" s="7" t="n">
+        <x:v>0.31419392</x:v>
+      </x:c>
+      <x:c r="H22" s="8">
+        <x:v>40242</x:v>
+      </x:c>
+      <x:c r="I22" s="9" t="n">
+        <x:v>4354</x:v>
+      </x:c>
+      <x:c r="J22" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K22" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L22" s="5" t="n">
+        <x:v>49447000000</x:v>
+      </x:c>
+      <x:c r="M22" s="5" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="N22" s="5" t="s"/>
+    </x:row>
+    <x:row r="23" spans="1:14">
+      <x:c r="A23" s="5" t="n">
+        <x:v>4295890634</x:v>
+      </x:c>
+      <x:c r="B23" s="5" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C23" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D23" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E23" s="5" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="F23" s="5" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G23" s="7" t="n">
+        <x:v>0.30879824</x:v>
+      </x:c>
+      <x:c r="H23" s="8">
+        <x:v>43363</x:v>
+      </x:c>
+      <x:c r="I23" s="9" t="n">
+        <x:v>1233</x:v>
+      </x:c>
+      <x:c r="J23" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K23" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L23" s="5" t="n">
+        <x:v>89962558511.3111</x:v>
+      </x:c>
+      <x:c r="M23" s="5" t="n">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="N23" s="5" t="s">
+        <x:v>25</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:14">
+      <x:c r="A24" s="5" t="n">
+        <x:v>4295889234</x:v>
+      </x:c>
+      <x:c r="B24" s="5" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="C24" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D24" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E24" s="5" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="F24" s="5" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="G24" s="7" t="n">
+        <x:v>0.30054712</x:v>
+      </x:c>
+      <x:c r="H24" s="8">
+        <x:v>43509</x:v>
+      </x:c>
+      <x:c r="I24" s="9" t="n">
+        <x:v>1087</x:v>
+      </x:c>
+      <x:c r="J24" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K24" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L24" s="5" t="n">
+        <x:v>1971417432.82134</x:v>
+      </x:c>
+      <x:c r="M24" s="5" t="s"/>
+      <x:c r="N24" s="5" t="s"/>
+    </x:row>
+    <x:row r="25" spans="1:14">
+      <x:c r="A25" s="5" t="n">
+        <x:v>4295907168</x:v>
+      </x:c>
+      <x:c r="B25" s="5" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="C25" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D25" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E25" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F25" s="5" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G25" s="7" t="n">
+        <x:v>0.30327544</x:v>
+      </x:c>
+      <x:c r="H25" s="8">
+        <x:v>43346</x:v>
+      </x:c>
+      <x:c r="I25" s="9" t="n">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="J25" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K25" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L25" s="5" t="n">
+        <x:v>168088000000</x:v>
+      </x:c>
+      <x:c r="M25" s="5" t="n">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="N25" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="1:14">
+      <x:c r="A26" s="5" t="n">
+        <x:v>4295899791</x:v>
+      </x:c>
+      <x:c r="B26" s="5" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C26" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D26" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E26" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F26" s="5" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G26" s="7" t="n">
+        <x:v>0.3015896</x:v>
+      </x:c>
+      <x:c r="H26" s="8">
+        <x:v>44320</x:v>
+      </x:c>
+      <x:c r="I26" s="9" t="n">
+        <x:v>276</x:v>
+      </x:c>
+      <x:c r="J26" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K26" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L26" s="5" t="n">
+        <x:v>28720000000</x:v>
+      </x:c>
+      <x:c r="M26" s="5" t="n">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="N26" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="1:14">
+      <x:c r="A27" s="5" t="n">
+        <x:v>4295868725</x:v>
+      </x:c>
+      <x:c r="B27" s="5" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C27" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D27" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E27" s="5" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="F27" s="5" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="G27" s="7" t="n">
+        <x:v>0.29095664</x:v>
+      </x:c>
+      <x:c r="H27" s="8">
+        <x:v>43346</x:v>
+      </x:c>
+      <x:c r="I27" s="9" t="n">
+        <x:v>1250</x:v>
+      </x:c>
+      <x:c r="J27" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="K27" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L27" s="5" t="n">
+        <x:v>22651215034.0576</x:v>
+      </x:c>
+      <x:c r="M27" s="5" t="n">
+        <x:v>97</x:v>
+      </x:c>
+      <x:c r="N27" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="28" spans="1:14">
+      <x:c r="A28" s="5" t="n">
+        <x:v>4297651536</x:v>
+      </x:c>
+      <x:c r="B28" s="5" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C28" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D28" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E28" s="5" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F28" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G28" s="7" t="n">
+        <x:v>0.2853276</x:v>
+      </x:c>
+      <x:c r="H28" s="8">
+        <x:v>44314</x:v>
+      </x:c>
+      <x:c r="I28" s="9" t="n">
+        <x:v>282</x:v>
+      </x:c>
+      <x:c r="J28" s="5" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="K28" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L28" s="5" t="s"/>
+      <x:c r="M28" s="5" t="s"/>
+      <x:c r="N28" s="5" t="s"/>
+    </x:row>
+    <x:row r="29" spans="1:14">
+      <x:c r="A29" s="5" t="n">
+        <x:v>4298204106</x:v>
+      </x:c>
+      <x:c r="B29" s="5" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C29" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D29" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E29" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="F29" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G29" s="7" t="n">
+        <x:v>0.28626648</x:v>
+      </x:c>
+      <x:c r="H29" s="8">
+        <x:v>41904</x:v>
+      </x:c>
+      <x:c r="I29" s="9" t="n">
+        <x:v>2692</x:v>
+      </x:c>
+      <x:c r="J29" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K29" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L29" s="5" t="n">
+        <x:v>539558699.579151</x:v>
+      </x:c>
+      <x:c r="M29" s="5" t="s"/>
+      <x:c r="N29" s="5" t="s">
+        <x:v>36</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="30" spans="1:14">
+      <x:c r="A30" s="5" t="n">
+        <x:v>5001181602</x:v>
+      </x:c>
+      <x:c r="B30" s="5" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C30" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="D30" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E30" s="5" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="F30" s="5" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="G30" s="7" t="n">
+        <x:v>0.2915696</x:v>
+      </x:c>
+      <x:c r="H30" s="8">
+        <x:v>41485</x:v>
+      </x:c>
+      <x:c r="I30" s="9" t="n">
+        <x:v>3111</x:v>
+      </x:c>
+      <x:c r="J30" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K30" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L30" s="5" t="n">
+        <x:v>194563539.545409</x:v>
+      </x:c>
+      <x:c r="M30" s="5" t="s"/>
+      <x:c r="N30" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="1:14">
+      <x:c r="A31" s="5" t="n">
+        <x:v>4296301199</x:v>
+      </x:c>
+      <x:c r="B31" s="5" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="C31" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D31" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E31" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F31" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G31" s="7" t="n">
+        <x:v>0.29435144</x:v>
+      </x:c>
+      <x:c r="H31" s="8">
+        <x:v>41759</x:v>
+      </x:c>
+      <x:c r="I31" s="9" t="n">
+        <x:v>2837</x:v>
+      </x:c>
+      <x:c r="J31" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K31" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L31" s="5" t="n">
+        <x:v>3716349000</x:v>
+      </x:c>
+      <x:c r="M31" s="5" t="n">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="N31" s="5" t="s">
+        <x:v>39</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="32" spans="1:14">
+      <x:c r="A32" s="5" t="n">
+        <x:v>4295873529</x:v>
+      </x:c>
+      <x:c r="B32" s="5" t="s">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="C32" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D32" s="5" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E32" s="5" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="F32" s="5" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="G32" s="7" t="n">
+        <x:v>0.2799504</x:v>
+      </x:c>
+      <x:c r="H32" s="8">
+        <x:v>43389</x:v>
+      </x:c>
+      <x:c r="I32" s="9" t="n">
+        <x:v>1207</x:v>
+      </x:c>
+      <x:c r="J32" s="5" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="K32" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L32" s="5" t="n">
+        <x:v>2597291523.53898</x:v>
+      </x:c>
+      <x:c r="M32" s="5" t="n">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="N32" s="5" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="1:14">
+      <x:c r="A33" s="5" t="n">
+        <x:v>4296474229</x:v>
+      </x:c>
+      <x:c r="B33" s="5" t="s">
+        <x:v>82</x:v>
+      </x:c>
+      <x:c r="C33" s="5" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="D33" s="5" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="E33" s="5" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="F33" s="5" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G33" s="7" t="n">
+        <x:v>0.2776928</x:v>
+      </x:c>
+      <x:c r="H33" s="8">
+        <x:v>42648</x:v>
+      </x:c>
+      <x:c r="I33" s="9" t="n">
+        <x:v>1948</x:v>
+      </x:c>
+      <x:c r="J33" s="5" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="K33" s="5" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="L33" s="5" t="n">
+        <x:v>43313323</x:v>
+      </x:c>
+      <x:c r="M33" s="5" t="n">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="N33" s="5" t="s">
+        <x:v>50</x:v>
+      </x:c>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="1">
